--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P22_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P22_trail9 Features.xlsx
@@ -4381,7 +4381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4392,29 +4392,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="18" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="17" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="17" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4435,115 +4433,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4560,72 +4548,66 @@
         <v>3.471432801376049e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.878624004908774</v>
+        <v>2.309891337656769e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>15.58480895044709</v>
+        <v>6.173147321198402e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.309891337656769e-07</v>
+        <v>-0.1078705254157279</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.173147321198402e-07</v>
+        <v>0.3278202008690326</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1078705254157279</v>
+        <v>0.1188187130608245</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3278202008690326</v>
+        <v>1.940561974496276</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1188187130608245</v>
+        <v>2.934013849114908</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.960022416685361</v>
+        <v>4.871117157974995</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.934013849114908</v>
+        <v>1.551873143162526e-18</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.871117157974995</v>
+        <v>30285140805.84211</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.551873143162526e-18</v>
+        <v>3.997144190358587e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>30285140805.84211</v>
+        <v>1423.362145841759</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.997144190358587e-09</v>
+        <v>0.0001048813645370618</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1423.362145841759</v>
+        <v>8.365891868462752</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001048813645370618</v>
+        <v>1.343820647430893</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.365891868462752</v>
+        <v>0.007340452333064735</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.343820647430893</v>
+        <v>4.625450874747262</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.007340452333064735</v>
+        <v>0.9597064104626637</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.625450874747262</v>
+        <v>0.8979169963054476</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9597064104626637</v>
+        <v>206</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.8979169963054476</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>206</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>4.576948069625162</v>
       </c>
     </row>
@@ -4640,72 +4622,66 @@
         <v>2.49789641732898e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.899862071225965</v>
+        <v>1.679262110525766e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>15.83911494458435</v>
+        <v>6.141285841763798e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.679262110525766e-07</v>
+        <v>-0.1076773130903355</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.141285841763798e-07</v>
+        <v>0.3333201077413923</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1076773130903355</v>
+        <v>0.1223976907676226</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3333201077413923</v>
+        <v>1.941431028818841</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1223976907676226</v>
+        <v>3.111791250398662</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.961725360379718</v>
+        <v>5.031321786072533</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.111791250398662</v>
+        <v>1.370658093120981e-18</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.031321786072533</v>
+        <v>34489716563.44418</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.370658093120981e-18</v>
+        <v>3.510094212692779e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>34489716563.44418</v>
+        <v>1630.45338007078</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.510094212692779e-09</v>
+        <v>8.199907845163711e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1630.45338007078</v>
+        <v>9.014623067674172</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>8.199907845163711e-05</v>
+        <v>1.227878817261647</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.014623067674172</v>
+        <v>0.006663526294103946</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.227878817261647</v>
+        <v>5.323363518653308</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.006663526294103946</v>
+        <v>0.9585279450084131</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>5.323363518653308</v>
+        <v>0.9325947048036582</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9585279450084131</v>
+        <v>223</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.9325947048036582</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>223</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>6.97800990586924</v>
       </c>
     </row>
@@ -4720,72 +4696,66 @@
         <v>1.788778997018271e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.901864161081455</v>
+        <v>1.217621202832769e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>16.01953912330523</v>
+        <v>6.118471377265507e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.217621202832769e-07</v>
+        <v>-0.1072804567349067</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.118471377265507e-07</v>
+        <v>0.3399690731894601</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.1072804567349067</v>
+        <v>0.1267751987955219</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3399690731894601</v>
+        <v>1.936246814212932</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1267751987955219</v>
+        <v>3.082889835963791</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.961401242481147</v>
+        <v>4.825744967338352</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.082889835963791</v>
+        <v>1.265628858885117e-18</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.825744967338352</v>
+        <v>37486433057.31026</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.265628858885117e-18</v>
+        <v>3.230966239178336e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>37486433057.31026</v>
+        <v>1778.503012196669</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.230966239178336e-09</v>
+        <v>7.565738272594704e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1778.503012196669</v>
+        <v>9.528474783849386</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>7.565738272594704e-05</v>
+        <v>1.255823740460832</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.528474783849386</v>
+        <v>0.006869072359804934</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.255823740460832</v>
+        <v>5.644335440230458</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.006869072359804934</v>
+        <v>0.9578065016604447</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>5.644335440230458</v>
+        <v>0.9797971485378447</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9578065016604447</v>
+        <v>223</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.9797971485378447</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>223</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>8.018276985110052</v>
       </c>
     </row>
@@ -4800,72 +4770,66 @@
         <v>1.275599678917997e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>3.852687001997857</v>
+        <v>8.793169814400168e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>15.92600074827057</v>
+        <v>6.102262733245019e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.793169814400168e-08</v>
+        <v>-0.1063078473879879</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.102262733245019e-07</v>
+        <v>0.3466382680326203</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.1063078473879879</v>
+        <v>0.1311290512138554</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3466382680326203</v>
+        <v>1.939883524579608</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1311290512138554</v>
+        <v>3.735350381602429</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.963973794154721</v>
+        <v>4.921373442822227</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.735350381602429</v>
+        <v>1.216921206194324e-18</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.921373442822227</v>
+        <v>39314889324.85385</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.216921206194324e-18</v>
+        <v>3.080826386174992e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>39314889324.85385</v>
+        <v>1880.947067560381</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.080826386174992e-09</v>
+        <v>8.104409887794581e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1880.947067560381</v>
+        <v>8.581742577997911</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>8.104409887794581e-05</v>
+        <v>1.467180174438611</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.581742577997911</v>
+        <v>0.005968598479121923</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.467180174438611</v>
+        <v>5.451389095886331</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.005968598479121923</v>
+        <v>0.9573546285474283</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>5.451389095886331</v>
+        <v>0.9519146900678612</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9573546285474283</v>
+        <v>220</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.9519146900678612</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>220</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>6.783533192365831</v>
       </c>
     </row>
@@ -4880,72 +4844,66 @@
         <v>9.091341627686015e-09</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>3.696265788477137</v>
+        <v>6.32285505107813e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>15.22933937302155</v>
+        <v>6.090876886385829e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.32285505107813e-08</v>
+        <v>-0.1040505203945392</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.090876886385829e-07</v>
+        <v>0.351525545975859</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.1040505203945392</v>
+        <v>0.1340534703066365</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.351525545975859</v>
+        <v>1.933879435783118</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1340534703066365</v>
+        <v>3.224692528956127</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.96551792760203</v>
+        <v>5.252502136577153</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.224692528956127</v>
+        <v>1.06832311806011e-18</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.252502136577153</v>
+        <v>43600486951.17775</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.06832311806011e-18</v>
+        <v>2.775975057905995e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>43600486951.17775</v>
+        <v>2030.884878049557</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.775975057905995e-09</v>
+        <v>7.92478546501446e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>2030.884878049557</v>
+        <v>8.717679955667744</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>7.92478546501446e-05</v>
+        <v>1.225399819451195</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.717679955667744</v>
+        <v>0.006022674004721241</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.225399819451195</v>
+        <v>5.105961683742118</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.006022674004721241</v>
+        <v>0.954688468001583</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>5.105961683742118</v>
+        <v>0.889695931999503</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.954688468001583</v>
+        <v>263</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.889695931999503</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>263</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>5.657073189181931</v>
       </c>
     </row>
@@ -4960,72 +4918,66 @@
         <v>6.527666698042477e-09</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>3.335677418963269</v>
+        <v>4.534532580324653e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>13.36329441156854</v>
+        <v>6.082991605612549e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.534532580324653e-08</v>
+        <v>-0.09945094535488071</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.082991605612549e-07</v>
+        <v>0.35256630176702</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.09945094535488071</v>
+        <v>0.1338452647454713</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.35256630176702</v>
+        <v>1.937889903119511</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.1338452647454713</v>
+        <v>3.507775666810905</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.968930935704341</v>
+        <v>5.392577080601047</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.507775666810905</v>
+        <v>8.424355823118273e-19</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.392577080601047</v>
+        <v>55427564708.52011</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>8.424355823118273e-19</v>
+        <v>2.186492051698583e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>55427564708.52011</v>
+        <v>2588.143173134898</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.186492051698583e-09</v>
+        <v>8.953171930230979e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>2588.143173134898</v>
+        <v>9.250807661188592</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>8.953171930230979e-05</v>
+        <v>1.234092517155656</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.250807661188592</v>
+        <v>0.007661895550161233</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.234092517155656</v>
+        <v>4.695930842846454</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.007661895550161233</v>
+        <v>0.9543952182297463</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>4.695930842846454</v>
+        <v>0.8894866594941879</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9543952182297463</v>
+        <v>279</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.8894866594941879</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>279</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>4.649151039820574</v>
       </c>
     </row>
@@ -5402,7 +5354,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.434673097467833</v>
+        <v>1.441618519799875</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.284882954564718</v>
@@ -5491,7 +5443,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.449507154877028</v>
+        <v>1.454753070522667</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.18063392839453</v>
@@ -5580,7 +5532,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.419801660461085</v>
+        <v>1.417128647263882</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.204889393281273</v>
@@ -5669,7 +5621,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.420336813595059</v>
+        <v>1.415435857758979</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.231598517251848</v>
@@ -5758,7 +5710,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.382682125047765</v>
+        <v>1.367820058283098</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.14309703792779</v>
@@ -5847,7 +5799,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.355175532589224</v>
+        <v>1.334826310202324</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.611571728715007</v>
@@ -5936,7 +5888,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.371195536782355</v>
+        <v>1.348369299918479</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.25891469169197</v>
@@ -6025,7 +5977,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.378026325744443</v>
+        <v>1.36018447775188</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.31834692403458</v>
@@ -6114,7 +6066,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.407768124056733</v>
+        <v>1.38285276386059</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.431437687107991</v>
@@ -6203,7 +6155,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.409285904134874</v>
+        <v>1.383563081600352</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.429168354178829</v>
@@ -6292,7 +6244,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.446897994764903</v>
+        <v>1.42555338073947</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.528325987084408</v>
@@ -6381,7 +6333,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.45000853470139</v>
+        <v>1.435088357273721</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.410143514661096</v>
@@ -6470,7 +6422,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.461966262414727</v>
+        <v>1.460184454512417</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.197497607253172</v>
@@ -6559,7 +6511,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.467205294901516</v>
+        <v>1.46272030116249</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.095715129837192</v>
@@ -6648,7 +6600,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.482828186039895</v>
+        <v>1.481873787424658</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.066261281039902</v>
@@ -6737,7 +6689,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.497306866508934</v>
+        <v>1.495707380916003</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.164660037863527</v>
@@ -6826,7 +6778,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.508058627777887</v>
+        <v>1.504360505815236</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.283862700492189</v>
@@ -6915,7 +6867,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.546307646957649</v>
+        <v>1.5401751232231</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.143157297487171</v>
@@ -7004,7 +6956,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.551294183875044</v>
+        <v>1.545260501278828</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.227958628332352</v>
@@ -7093,7 +7045,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.567454837627805</v>
+        <v>1.564929474828494</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.186939935619797</v>
@@ -7182,7 +7134,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.605904080587893</v>
+        <v>1.599999436990852</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.087400251151279</v>
@@ -7271,7 +7223,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.584841496560134</v>
+        <v>1.578498229721319</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.088753979738831</v>
@@ -7360,7 +7312,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.553801031391678</v>
+        <v>1.544347147775567</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.18346318931628</v>
@@ -7449,7 +7401,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.550518106931607</v>
+        <v>1.53780972540968</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.137511205411743</v>
@@ -7538,7 +7490,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.54310765123634</v>
+        <v>1.532880988004546</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.189531192083936</v>
@@ -7627,7 +7579,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.508538732413341</v>
+        <v>1.49436650938906</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.164417214128368</v>
@@ -7716,7 +7668,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.469422766367786</v>
+        <v>1.462884253322957</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.115512707555872</v>
@@ -7805,7 +7757,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.452147161515053</v>
+        <v>1.435937466261383</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.226847660793295</v>
@@ -7894,7 +7846,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.428516142718903</v>
+        <v>1.419675770587108</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.317342752705608</v>
@@ -7983,7 +7935,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.423133404458668</v>
+        <v>1.411361928058527</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.220051279949594</v>
@@ -8072,7 +8024,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.416604030954662</v>
+        <v>1.404278951072836</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.194667164447972</v>
@@ -8161,7 +8113,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.378372448786376</v>
+        <v>1.373533344753816</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.246313615636461</v>
@@ -8250,7 +8202,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.373921162743379</v>
+        <v>1.369983085745533</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.258328522530532</v>
@@ -8339,7 +8291,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.378101536177053</v>
+        <v>1.376180081975542</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.253465250881702</v>
@@ -8428,7 +8380,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.377096583804964</v>
+        <v>1.375456980807269</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.21288729708353</v>
@@ -8517,7 +8469,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.381340527819537</v>
+        <v>1.380219019942184</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.287428094927407</v>
@@ -8606,7 +8558,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.38244009840588</v>
+        <v>1.378115369231175</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.309988997151329</v>
@@ -8695,7 +8647,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.381223824446806</v>
+        <v>1.386835272664674</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.199854813159273</v>
@@ -8784,7 +8736,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.383097018390079</v>
+        <v>1.394612555202992</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.259577044269194</v>
@@ -8873,7 +8825,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.36613726711431</v>
+        <v>1.376253238362658</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.211370748233796</v>
@@ -8962,7 +8914,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.386101503178734</v>
+        <v>1.394846271385404</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.129227627343774</v>
@@ -9051,7 +9003,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.383918002149952</v>
+        <v>1.389728319764036</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.338267686257043</v>
@@ -9140,7 +9092,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.376135593272532</v>
+        <v>1.381918414421977</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.990608000969321</v>
@@ -9229,7 +9181,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.380952710170852</v>
+        <v>1.389010500394248</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.251802795941949</v>
@@ -9318,7 +9270,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.389601484728609</v>
+        <v>1.395861252810989</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.333484372672698</v>
@@ -9407,7 +9359,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.412559012558095</v>
+        <v>1.414996286209182</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.175588560640509</v>
@@ -9496,7 +9448,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.450816913098902</v>
+        <v>1.447659135186863</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.363759511458922</v>
@@ -9585,7 +9537,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.455696898544817</v>
+        <v>1.452594879917562</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.2936431798784</v>
@@ -9674,7 +9626,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.45971305338641</v>
+        <v>1.447169761273378</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.310854713189664</v>
@@ -9763,7 +9715,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.449898349821569</v>
+        <v>1.437274982250804</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.298156753454427</v>
@@ -9852,7 +9804,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.41877989374508</v>
+        <v>1.404165862960406</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.280417887799044</v>
@@ -10138,7 +10090,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.238846485912708</v>
+        <v>1.237295340125095</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.151766385340092</v>
@@ -10227,7 +10179,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.241751989970209</v>
+        <v>1.238154840454631</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.079413772286285</v>
@@ -10316,7 +10268,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.239152859306452</v>
+        <v>1.230679940851542</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.082731501559106</v>
@@ -10405,7 +10357,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.243906604243954</v>
+        <v>1.237116842686877</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.811768076087843</v>
@@ -10494,7 +10446,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.227152402550336</v>
+        <v>1.222127297189635</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.973757250096359</v>
@@ -10583,7 +10535,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.215096395638251</v>
+        <v>1.201725607650008</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.077827952235968</v>
@@ -10672,7 +10624,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.205594519130817</v>
+        <v>1.193175402476651</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.059099270270839</v>
@@ -10761,7 +10713,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.214605805426801</v>
+        <v>1.203952300873188</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.976923832368876</v>
@@ -10850,7 +10802,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.226632430689163</v>
+        <v>1.218177576728906</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.067658558960245</v>
@@ -10939,7 +10891,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.236223119306646</v>
+        <v>1.227330352412829</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.985612640320879</v>
@@ -11028,7 +10980,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.240375123843918</v>
+        <v>1.233070506701119</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.056449395575886</v>
@@ -11117,7 +11069,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.2449820354518</v>
+        <v>1.242416493550428</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.087293030759422</v>
@@ -11206,7 +11158,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.269141966072856</v>
+        <v>1.275206616453433</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.093658904469001</v>
@@ -11295,7 +11247,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.282412392332331</v>
+        <v>1.288781175421978</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.146174835373467</v>
@@ -11384,7 +11336,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.296856327384134</v>
+        <v>1.304441618459176</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.090341805545169</v>
@@ -11473,7 +11425,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.308099258404841</v>
+        <v>1.316125253711723</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.103252960055279</v>
@@ -11562,7 +11514,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.316282467184966</v>
+        <v>1.327745018235245</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.073897063082506</v>
@@ -11651,7 +11603,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.336601975409542</v>
+        <v>1.346290152104522</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.080263184578873</v>
@@ -11740,7 +11692,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.353928021440435</v>
+        <v>1.363197926753668</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.067437082670529</v>
@@ -11829,7 +11781,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.353158528082482</v>
+        <v>1.365810555156371</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.00597557506808</v>
@@ -11918,7 +11870,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.366123175637343</v>
+        <v>1.377183002549774</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.990744554286649</v>
@@ -12007,7 +11959,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.437559612629587</v>
+        <v>1.440860253915019</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.705947372120045</v>
@@ -12096,7 +12048,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.465746107798289</v>
+        <v>1.467839857471523</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.935969436411754</v>
@@ -12185,7 +12137,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.45747707474067</v>
+        <v>1.458424880322442</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.002523219376723</v>
@@ -12274,7 +12226,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.453667039213358</v>
+        <v>1.452927203616487</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.972370010682513</v>
@@ -12363,7 +12315,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.469713919448029</v>
+        <v>1.462794138014955</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.936230280989035</v>
@@ -12452,7 +12404,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.492624865326527</v>
+        <v>1.477718352013347</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.848140521466459</v>
@@ -12541,7 +12493,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.522212469470547</v>
+        <v>1.480888461957331</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.813840994991265</v>
@@ -12630,7 +12582,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.507825820272003</v>
+        <v>1.472591441356105</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.810578236634161</v>
@@ -12719,7 +12671,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.499597476466414</v>
+        <v>1.463670279761152</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.89782160912613</v>
@@ -12808,7 +12760,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.47791536471046</v>
+        <v>1.453645576379598</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.036634857306443</v>
@@ -12897,7 +12849,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.481937333793087</v>
+        <v>1.46438630612941</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.870914898725337</v>
@@ -12986,7 +12938,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.479288449147093</v>
+        <v>1.466718599373134</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.047947145874237</v>
@@ -13075,7 +13027,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.462864404859306</v>
+        <v>1.456367469814102</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.81557240356194</v>
@@ -13164,7 +13116,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.422081940433241</v>
+        <v>1.418477961593403</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.903708510959913</v>
@@ -13253,7 +13205,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.419424534041111</v>
+        <v>1.419239406111762</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.963071591280609</v>
@@ -13342,7 +13294,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.421707902611258</v>
+        <v>1.425086240099416</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.965217388808539</v>
@@ -13431,7 +13383,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.421567570293009</v>
+        <v>1.428242422377352</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.989787244232662</v>
@@ -13520,7 +13472,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.381372092932863</v>
+        <v>1.393749632945763</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.013610306204406</v>
@@ -13609,7 +13561,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.383362581421334</v>
+        <v>1.401225421493453</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.96597212820384</v>
@@ -13698,7 +13650,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.39524264270834</v>
+        <v>1.416036055969771</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.980916996416954</v>
@@ -13787,7 +13739,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.367571137906664</v>
+        <v>1.38424542248208</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.014399385798238</v>
@@ -13876,7 +13828,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.371490238902079</v>
+        <v>1.391752685222058</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.068293692635441</v>
@@ -13965,7 +13917,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.384240716543193</v>
+        <v>1.403741633501638</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.042737089147395</v>
@@ -14054,7 +14006,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.401874166047037</v>
+        <v>1.424854391041681</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.012965124959461</v>
@@ -14143,7 +14095,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.377565386623828</v>
+        <v>1.399573948253058</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.038976998412211</v>
@@ -14232,7 +14184,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.366197404276656</v>
+        <v>1.391228790595348</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.01737464120164</v>
@@ -14321,7 +14273,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.372459396193924</v>
+        <v>1.39649210020936</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.034203535159127</v>
@@ -14410,7 +14362,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.385854534081001</v>
+        <v>1.408283698920441</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.023867740345329</v>
@@ -14499,7 +14451,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.397580279538774</v>
+        <v>1.405886559851406</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.063790809193917</v>
@@ -14588,7 +14540,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.372575105556125</v>
+        <v>1.396352493093921</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.017742050904164</v>
@@ -14874,7 +14826,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.541480366208609</v>
+        <v>1.547848720723473</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.114879221416274</v>
@@ -14963,7 +14915,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.551113734680881</v>
+        <v>1.555645539151628</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.079705455613826</v>
@@ -15052,7 +15004,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.53536742179119</v>
+        <v>1.530518836695677</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.104073917972738</v>
@@ -15141,7 +15093,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.550219591673617</v>
+        <v>1.534060609371146</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.008570290072799</v>
@@ -15230,7 +15182,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.491336310956748</v>
+        <v>1.468828304433031</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.961731582113198</v>
@@ -15319,7 +15271,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.485905676572752</v>
+        <v>1.447721496790946</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.42240906542716</v>
@@ -15408,7 +15360,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.498346792735201</v>
+        <v>1.460097974119622</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.460580809332221</v>
@@ -15497,7 +15449,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.517532659553098</v>
+        <v>1.481114271339059</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.362611490673873</v>
@@ -15586,7 +15538,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.526749802495231</v>
+        <v>1.48908095704892</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.409273993617073</v>
@@ -15675,7 +15627,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.524097346914277</v>
+        <v>1.492717794467478</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.452363484367669</v>
@@ -15764,7 +15716,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.532757386760885</v>
+        <v>1.512480736598378</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.332167199190098</v>
@@ -15853,7 +15805,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.525926138454692</v>
+        <v>1.511756109095538</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.182135016086129</v>
@@ -15942,7 +15894,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.535841984890599</v>
+        <v>1.532141388156532</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.060046933007439</v>
@@ -16031,7 +15983,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.535059770669432</v>
+        <v>1.533998893429219</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.115213152630481</v>
@@ -16120,7 +16072,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.534698267069111</v>
+        <v>1.537340166483112</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.063674955593725</v>
@@ -16209,7 +16161,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.539573691196802</v>
+        <v>1.538284820851946</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.1142933776018</v>
@@ -16298,7 +16250,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.538871282840328</v>
+        <v>1.536973776730917</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.095017500190593</v>
@@ -16387,7 +16339,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.538986950517955</v>
+        <v>1.538144226795197</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.066795220195947</v>
@@ -16476,7 +16428,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.553892260881015</v>
+        <v>1.551608160903955</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.891315492092769</v>
@@ -16565,7 +16517,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.563939226209301</v>
+        <v>1.563966327757075</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.076399100414546</v>
@@ -16654,7 +16606,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.575503189888893</v>
+        <v>1.573990257081942</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.061004491427747</v>
@@ -16743,7 +16695,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.57271215227699</v>
+        <v>1.571814079074699</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.015652555422037</v>
@@ -16832,7 +16784,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.565803321936284</v>
+        <v>1.562596471174462</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.029185148201154</v>
@@ -16921,7 +16873,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.560549774975704</v>
+        <v>1.553671856384336</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.060886556400369</v>
@@ -17010,7 +16962,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.548325444762197</v>
+        <v>1.540422690862733</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.039629454794636</v>
@@ -17099,7 +17051,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.549376839736054</v>
+        <v>1.539009761574633</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.976211690829714</v>
@@ -17188,7 +17140,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.567934139152954</v>
+        <v>1.548870278593298</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.953532197937585</v>
@@ -17277,7 +17229,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.560926927319839</v>
+        <v>1.528868961868531</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.499030012600818</v>
@@ -17366,7 +17318,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.566598718192659</v>
+        <v>1.534734459794084</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.509177387500566</v>
@@ -17455,7 +17407,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.574061903334322</v>
+        <v>1.53863186514481</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.539769974782742</v>
@@ -17544,7 +17496,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.566336053827717</v>
+        <v>1.536494642289602</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.622409349911568</v>
@@ -17633,7 +17585,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.545424006712436</v>
+        <v>1.521586005732102</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.728492953933065</v>
@@ -17722,7 +17674,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.55364979490645</v>
+        <v>1.525235790940834</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.545021677974003</v>
@@ -17811,7 +17763,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.578979911551202</v>
+        <v>1.54547001164667</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.678483659350858</v>
@@ -17900,7 +17852,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.575918141278343</v>
+        <v>1.542601819421148</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.670442390699805</v>
@@ -17989,7 +17941,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.577276798105947</v>
+        <v>1.544727190618774</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.721112035686569</v>
@@ -18078,7 +18030,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.568959995069422</v>
+        <v>1.535738911384072</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.715141150436535</v>
@@ -18167,7 +18119,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.559067968004508</v>
+        <v>1.526596083542989</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.670282832869715</v>
@@ -18256,7 +18208,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.565583820897881</v>
+        <v>1.53617585773038</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.567926891059261</v>
@@ -18345,7 +18297,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.578427846210184</v>
+        <v>1.545707838606736</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.007023032432874</v>
@@ -18434,7 +18386,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.568988800009198</v>
+        <v>1.535382703658155</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.996343614121416</v>
@@ -18523,7 +18475,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.550719813718532</v>
+        <v>1.522838000481314</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.677034183351126</v>
@@ -18612,7 +18564,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.554916629843749</v>
+        <v>1.528101026740663</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.757986984444396</v>
@@ -18701,7 +18653,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.567733836261749</v>
+        <v>1.529232361323934</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.963210809016909</v>
@@ -18790,7 +18742,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.561697410690614</v>
+        <v>1.521250622651858</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.797057942671234</v>
@@ -18879,7 +18831,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.572981621556811</v>
+        <v>1.527150180431953</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.724875082093269</v>
@@ -18968,7 +18920,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.587096596850344</v>
+        <v>1.539195650803357</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.98819722267808</v>
@@ -19057,7 +19009,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.587312254642923</v>
+        <v>1.53599703975863</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.049305990071477</v>
@@ -19146,7 +19098,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.585651259878452</v>
+        <v>1.521758178070224</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.843432753618002</v>
@@ -19235,7 +19187,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.588036818624896</v>
+        <v>1.514578566405034</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.159290780984618</v>
@@ -19324,7 +19276,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.574358338445925</v>
+        <v>1.501670456604871</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.266128510248893</v>
@@ -19610,7 +19562,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.65478012100709</v>
+        <v>1.658291932201341</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.190359277314912</v>
@@ -19699,7 +19651,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.659823449625513</v>
+        <v>1.661338502731064</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.160472486022629</v>
@@ -19788,7 +19740,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.652765995517002</v>
+        <v>1.64265346574931</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.115461210826235</v>
@@ -19877,7 +19829,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.63618370815211</v>
+        <v>1.615694460820775</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.052764537599023</v>
@@ -19966,7 +19918,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.564156309009684</v>
+        <v>1.522723316283764</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.939455978241415</v>
@@ -20055,7 +20007,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.579643382363473</v>
+        <v>1.508610831516687</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.868590703737627</v>
@@ -20144,7 +20096,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.580793544432876</v>
+        <v>1.510609551877481</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.919136310649339</v>
@@ -20233,7 +20185,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.604436686897738</v>
+        <v>1.530625580482357</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.047558017181087</v>
@@ -20322,7 +20274,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.613857542401421</v>
+        <v>1.537293641940439</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.331504697555431</v>
@@ -20411,7 +20363,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.612945065774369</v>
+        <v>1.541790314274276</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.592078673156774</v>
@@ -20500,7 +20452,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.620890193556533</v>
+        <v>1.562587563850626</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.310923504047345</v>
@@ -20589,7 +20541,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.607699835212544</v>
+        <v>1.570064521070859</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.370252140331008</v>
@@ -20678,7 +20630,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.643359104633928</v>
+        <v>1.631726999448524</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.978794508953985</v>
@@ -20767,7 +20719,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.646573840434217</v>
+        <v>1.634579537919478</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.950903301758752</v>
@@ -20856,7 +20808,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.643374323282771</v>
+        <v>1.63619537129416</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.967444929788662</v>
@@ -20945,7 +20897,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.648871204436857</v>
+        <v>1.638102594552219</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.968158561118869</v>
@@ -21034,7 +20986,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.65132985587161</v>
+        <v>1.642735676091814</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.966917104658933</v>
@@ -21123,7 +21075,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.651869699157264</v>
+        <v>1.640987594191749</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.991294421795338</v>
@@ -21212,7 +21164,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.654835614787249</v>
+        <v>1.643130048767382</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.994497196591904</v>
@@ -21301,7 +21253,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.662088833242666</v>
+        <v>1.651394382785577</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.974369191259757</v>
@@ -21390,7 +21342,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.663027205377879</v>
+        <v>1.650962148473085</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.969896041648997</v>
@@ -21479,7 +21431,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.661179650003906</v>
+        <v>1.650524159541144</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.946370232844875</v>
@@ -21568,7 +21520,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.658928586011947</v>
+        <v>1.646303997499762</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.989764209248061</v>
@@ -21657,7 +21609,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.652473252759307</v>
+        <v>1.641853587971963</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.98555423897719</v>
@@ -21746,7 +21698,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.650518144875745</v>
+        <v>1.639068683844428</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.97658172080504</v>
@@ -21835,7 +21787,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.652907073220101</v>
+        <v>1.631812161701551</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.954915966096078</v>
@@ -21924,7 +21876,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.666114530301869</v>
+        <v>1.633034438762447</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.90059461036067</v>
@@ -22013,7 +21965,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.637897865059261</v>
+        <v>1.571353917806635</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.65544658240671</v>
@@ -22102,7 +22054,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.634521294121572</v>
+        <v>1.567804052680554</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.862466384578328</v>
@@ -22191,7 +22143,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.639429519055976</v>
+        <v>1.566641174653482</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.855456579338553</v>
@@ -22280,7 +22232,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.630980961658971</v>
+        <v>1.573170871664281</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.215871626578693</v>
@@ -22369,7 +22321,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.632184736319055</v>
+        <v>1.572225962451194</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.185025338602321</v>
@@ -22458,7 +22410,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.629858723816911</v>
+        <v>1.575175356806308</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.96298862959069</v>
@@ -22547,7 +22499,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.631265277763592</v>
+        <v>1.582378086393546</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.093308052402072</v>
@@ -22636,7 +22588,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.632015604109125</v>
+        <v>1.583265972631776</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.482128846684446</v>
@@ -22725,7 +22677,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.627628418916909</v>
+        <v>1.581622956763229</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.170556292624928</v>
@@ -22814,7 +22766,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.628263228982078</v>
+        <v>1.581238918926186</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.535917251845551</v>
@@ -22903,7 +22855,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.630561195643598</v>
+        <v>1.575349670561015</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.149463602322898</v>
@@ -22992,7 +22944,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.632192102764552</v>
+        <v>1.570348515412523</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.345606348194481</v>
@@ -23081,7 +23033,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.635318655739886</v>
+        <v>1.569115311355352</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.218683041856084</v>
@@ -23170,7 +23122,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.628257749629985</v>
+        <v>1.565397663021966</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.560987913625751</v>
@@ -23259,7 +23211,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.62411066462086</v>
+        <v>1.553967197612374</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.12395014021338</v>
@@ -23348,7 +23300,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.621954001799</v>
+        <v>1.561053060996768</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.985724807683356</v>
@@ -23437,7 +23389,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.624824182122371</v>
+        <v>1.566116691320288</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.580903534472956</v>
@@ -23526,7 +23478,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.628908302868253</v>
+        <v>1.574342418022215</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.580188236570261</v>
@@ -23615,7 +23567,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.6368058126714</v>
+        <v>1.575742784984801</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.455245666523352</v>
@@ -23704,7 +23656,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.641222899743934</v>
+        <v>1.576451430770438</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.360928658069782</v>
@@ -23793,7 +23745,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.6499942593474</v>
+        <v>1.577696786634165</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.357890382123747</v>
@@ -23882,7 +23834,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.659457072349188</v>
+        <v>1.569590977513629</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.435626822129513</v>
@@ -23971,7 +23923,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.657657851002681</v>
+        <v>1.559817389404322</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.273549434099711</v>
@@ -24060,7 +24012,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.659534744193748</v>
+        <v>1.561240524748297</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.364292464790612</v>
@@ -24346,7 +24298,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.397095886605115</v>
+        <v>1.413267409370091</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.106017027012745</v>
@@ -24435,7 +24387,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.399489344066747</v>
+        <v>1.417113708732623</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.104377828625941</v>
@@ -24524,7 +24476,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.397027338713447</v>
+        <v>1.408353754433694</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.113656957833632</v>
@@ -24613,7 +24565,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.421906594512362</v>
+        <v>1.422451977510838</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.944469164506702</v>
@@ -24702,7 +24654,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.435428406175462</v>
+        <v>1.421152861455361</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.764442950774503</v>
@@ -24791,7 +24743,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.515019492834553</v>
+        <v>1.473875865328115</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.339786146472982</v>
@@ -24880,7 +24832,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.523766584582355</v>
+        <v>1.48818652863313</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.69698312059996</v>
@@ -24969,7 +24921,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.569504199880231</v>
+        <v>1.52193410773853</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.761156118722551</v>
@@ -25058,7 +25010,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.578935403799384</v>
+        <v>1.531941597549956</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.555116020397064</v>
@@ -25147,7 +25099,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.582570899877864</v>
+        <v>1.538235715706923</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.599908159321199</v>
@@ -25236,7 +25188,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.579288678073058</v>
+        <v>1.549936864792246</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.67502057107351</v>
@@ -25325,7 +25277,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.53927582793</v>
+        <v>1.523394161729445</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.423539009525987</v>
@@ -25414,7 +25366,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.521409220985426</v>
+        <v>1.519940830499163</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.000764167355817</v>
@@ -25503,7 +25455,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.515447458262887</v>
+        <v>1.519679592417045</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.981193188504554</v>
@@ -25592,7 +25544,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.523017392026976</v>
+        <v>1.525575457646186</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.039678344615898</v>
@@ -25681,7 +25633,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.530815774226424</v>
+        <v>1.534521230029087</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.002239306893807</v>
@@ -25770,7 +25722,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.5372015273184</v>
+        <v>1.538598218733523</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.021738057700099</v>
@@ -25859,7 +25811,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.536321917424902</v>
+        <v>1.536972015255381</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.011424192484338</v>
@@ -25948,7 +25900,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.554121820169342</v>
+        <v>1.555085201190836</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.015057049483425</v>
@@ -26037,7 +25989,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.564132757485012</v>
+        <v>1.571134566891533</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.997826573459444</v>
@@ -26126,7 +26078,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.571437088400464</v>
+        <v>1.576152297350052</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.963673142729576</v>
@@ -26215,7 +26167,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.571732927740162</v>
+        <v>1.574399482840048</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.997668024710081</v>
@@ -26304,7 +26256,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.560436885467045</v>
+        <v>1.559293651407286</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.989535866917027</v>
@@ -26393,7 +26345,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.555788039241021</v>
+        <v>1.553632012099895</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.995573557938577</v>
@@ -26482,7 +26434,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.556081642441633</v>
+        <v>1.551563328456253</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.958994102223917</v>
@@ -26571,7 +26523,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.553966367909157</v>
+        <v>1.548537757511643</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.920687655109077</v>
@@ -26660,7 +26612,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.589707121327114</v>
+        <v>1.578509012942262</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.913364780151183</v>
@@ -26749,7 +26701,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.656575036192474</v>
+        <v>1.614573016784221</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.907112745653085</v>
@@ -26838,7 +26790,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.657594522419664</v>
+        <v>1.617218540426905</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.046690897583954</v>
@@ -26927,7 +26879,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.652477690326286</v>
+        <v>1.613715299803075</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.162084350954407</v>
@@ -27016,7 +26968,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.638858039395563</v>
+        <v>1.601589430777445</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.107811594202945</v>
@@ -27105,7 +27057,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.629467289308843</v>
+        <v>1.596796185093417</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.969052185242986</v>
@@ -27194,7 +27146,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.644611513951945</v>
+        <v>1.613353385093498</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.238871371430693</v>
@@ -27283,7 +27235,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.655833100851735</v>
+        <v>1.626523678576702</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.186048000635308</v>
@@ -27372,7 +27324,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.661757725578939</v>
+        <v>1.63568463012102</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.172082549817971</v>
@@ -27461,7 +27413,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.671330226580299</v>
+        <v>1.643409365025621</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.099503584532948</v>
@@ -27550,7 +27502,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.69239451995574</v>
+        <v>1.665732716607731</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.733966048061459</v>
@@ -27639,7 +27591,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.679942854543856</v>
+        <v>1.647581531469805</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.348571691166729</v>
@@ -27728,7 +27680,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.691875753418722</v>
+        <v>1.65529658332056</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.040399773344667</v>
@@ -27817,7 +27769,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.680018337629537</v>
+        <v>1.638465486474253</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.364438444418462</v>
@@ -27906,7 +27858,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.694903449459596</v>
+        <v>1.643549481297718</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.683349782706223</v>
@@ -27995,7 +27947,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.695288963708876</v>
+        <v>1.647141880737203</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.638323144489536</v>
@@ -28084,7 +28036,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.697933300120468</v>
+        <v>1.650107177365443</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.631920109018391</v>
@@ -28173,7 +28125,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.688376552770276</v>
+        <v>1.647738095918891</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.326105756463537</v>
@@ -28262,7 +28214,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.691096616482246</v>
+        <v>1.653028269770752</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.600258604389581</v>
@@ -28351,7 +28303,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.714441995113152</v>
+        <v>1.670096758609435</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.959005049328973</v>
@@ -28440,7 +28392,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.719163308663148</v>
+        <v>1.678998639655484</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.504560123975249</v>
@@ -28529,7 +28481,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.717191588161752</v>
+        <v>1.672752479199821</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.623788125914439</v>
@@ -28618,7 +28570,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.716218382143311</v>
+        <v>1.666716079995215</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.630946190505261</v>
@@ -28707,7 +28659,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.701688823339948</v>
+        <v>1.646768081036601</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.359571899116937</v>
@@ -28796,7 +28748,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.680060605058026</v>
+        <v>1.621553750017058</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.358824051659761</v>
@@ -29082,7 +29034,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.328157448348434</v>
+        <v>1.342510245780435</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.203806176892113</v>
@@ -29171,7 +29123,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.339287874296446</v>
+        <v>1.352551884221996</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.126728297674731</v>
@@ -29260,7 +29212,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.328368844016207</v>
+        <v>1.334708615701526</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.154725557711736</v>
@@ -29349,7 +29301,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.317835711848946</v>
+        <v>1.322543935397182</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.899365252351991</v>
@@ -29438,7 +29390,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.282965221608889</v>
+        <v>1.27414615557259</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.872081104434264</v>
@@ -29527,7 +29479,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.272827878649182</v>
+        <v>1.252943523897448</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.389640165073502</v>
@@ -29616,7 +29568,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.292165138038216</v>
+        <v>1.272945684913234</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.423926553460466</v>
@@ -29705,7 +29657,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.304784573108832</v>
+        <v>1.28682753294481</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.163834411944967</v>
@@ -29794,7 +29746,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.313219339743262</v>
+        <v>1.293000044963628</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.205088790632745</v>
@@ -29883,7 +29835,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.306756245818713</v>
+        <v>1.290969680883276</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.26735645395359</v>
@@ -29972,7 +29924,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.327345137846203</v>
+        <v>1.319569887455437</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.42791702891497</v>
@@ -30061,7 +30013,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.315422358087674</v>
+        <v>1.314032393538325</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.243556039517931</v>
@@ -30150,7 +30102,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.327818121976221</v>
+        <v>1.335675259722459</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.227051994497997</v>
@@ -30239,7 +30191,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.330364924173588</v>
+        <v>1.341839659074427</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.222873836630351</v>
@@ -30328,7 +30280,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.338654958319294</v>
+        <v>1.350613031082185</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.044672053626166</v>
@@ -30417,7 +30369,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.353547051646914</v>
+        <v>1.366653654060774</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.075424438810301</v>
@@ -30506,7 +30458,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.363156128172261</v>
+        <v>1.376256532742037</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.1402127128658</v>
@@ -30595,7 +30547,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.388994715893049</v>
+        <v>1.399577574978912</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.076187619706256</v>
@@ -30684,7 +30636,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.398262797178954</v>
+        <v>1.408267843886993</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.148716099263216</v>
@@ -30773,7 +30725,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.400877754809894</v>
+        <v>1.415776870354492</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.072137695804204</v>
@@ -30862,7 +30814,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.437212331475046</v>
+        <v>1.45598054769436</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.094153691723037</v>
@@ -30951,7 +30903,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.426297752921391</v>
+        <v>1.442199083893794</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.102528479186959</v>
@@ -31040,7 +30992,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.400806014019659</v>
+        <v>1.408007793280068</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.062299149378667</v>
@@ -31129,7 +31081,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.40201383552743</v>
+        <v>1.408523336423764</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.048730016022425</v>
@@ -31218,7 +31170,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.40808209546086</v>
+        <v>1.410657317595354</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.087638170577678</v>
@@ -31307,7 +31259,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.406268891770171</v>
+        <v>1.401710528262196</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.091305146971876</v>
@@ -31396,7 +31348,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.402673701220964</v>
+        <v>1.399475829196235</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.063637576289829</v>
@@ -31485,7 +31437,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.405990501531139</v>
+        <v>1.390208574392222</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.403416409961731</v>
@@ -31574,7 +31526,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.384875222104214</v>
+        <v>1.374877102404484</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.296375381587928</v>
@@ -31663,7 +31615,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.388360977486693</v>
+        <v>1.374974840808106</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.334033714963204</v>
@@ -31752,7 +31704,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.376302814007586</v>
+        <v>1.363282438944574</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.306283993655035</v>
@@ -31841,7 +31793,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.350899363633182</v>
+        <v>1.339166485861753</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.275045394255553</v>
@@ -31930,7 +31882,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.352581784614169</v>
+        <v>1.342597932837972</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.206072121086206</v>
@@ -32019,7 +31971,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.357056951643971</v>
+        <v>1.350110895391258</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.46233227107971</v>
@@ -32108,7 +32060,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.357520636189619</v>
+        <v>1.352063727854201</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.291087648915993</v>
@@ -32197,7 +32149,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.352302589693434</v>
+        <v>1.348849561830529</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.298665856430739</v>
@@ -32286,7 +32238,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.347710032397154</v>
+        <v>1.343537281044879</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.403257491912793</v>
@@ -32375,7 +32327,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.351994358462175</v>
+        <v>1.35048511257285</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.303982320067515</v>
@@ -32464,7 +32416,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.355988462368758</v>
+        <v>1.3545719866684</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.158903284033518</v>
@@ -32553,7 +32505,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.334724662463106</v>
+        <v>1.331798335820541</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.211065436750522</v>
@@ -32642,7 +32594,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.336456145369329</v>
+        <v>1.330456893958698</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.152680480196619</v>
@@ -32731,7 +32683,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.328378175584383</v>
+        <v>1.322499338765197</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.378960808108812</v>
@@ -32820,7 +32772,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.323608292856881</v>
+        <v>1.314961285492515</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.026401447053358</v>
@@ -32909,7 +32861,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.324598973386122</v>
+        <v>1.319174475392034</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.244539637182052</v>
@@ -32998,7 +32950,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.317548997868645</v>
+        <v>1.312318558546679</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.35289567758709</v>
@@ -33087,7 +33039,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.338451637344893</v>
+        <v>1.333525657644681</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.1706682469562</v>
@@ -33176,7 +33128,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.360603033361148</v>
+        <v>1.353835574483872</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.248328988403797</v>
@@ -33265,7 +33217,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.360026603021396</v>
+        <v>1.352300472580888</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.27381822603817</v>
@@ -33354,7 +33306,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.36047141490515</v>
+        <v>1.344045452226597</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.158728499034871</v>
@@ -33443,7 +33395,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.353683111686458</v>
+        <v>1.333210540790854</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.330827790203841</v>
@@ -33532,7 +33484,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.331749410858866</v>
+        <v>1.310610356138149</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.137444675591544</v>
